--- a/data/trans_camb/P57_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Habitat-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 5,65</t>
+          <t>-14,2; 6,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 2,86</t>
+          <t>-13,91; 2,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 2,56</t>
+          <t>-11,41; 2,25</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 37,39</t>
+          <t>-56,03; 43,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,01; 19,58</t>
+          <t>-52,91; 19,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 15,54</t>
+          <t>-46,3; 14,53</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 3,03</t>
+          <t>-5,69; 3,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 0,41</t>
+          <t>-8,82; 0,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 0,35</t>
+          <t>-5,81; 0,54</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 20,61</t>
+          <t>-26,89; 23,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 1,82</t>
+          <t>-31,58; 2,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,28; 1,98</t>
+          <t>-24,29; 2,8</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,84; -4,81</t>
+          <t>-11,67; -4,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,83; -2,68</t>
+          <t>-9,69; -2,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -4,71</t>
+          <t>-9,78; -4,91</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,66; -26,62</t>
+          <t>-53,31; -25,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,66; -12,28</t>
+          <t>-37,19; -12,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,34; -23,2</t>
+          <t>-42,21; -23,87</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,59; -4,71</t>
+          <t>-11,94; -4,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,18; -6,88</t>
+          <t>-15,03; -6,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,21; -6,87</t>
+          <t>-12,27; -6,78</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,94; -29,84</t>
+          <t>-62,02; -29,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,26; -40,3</t>
+          <t>-71,26; -40,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,52; -40,42</t>
+          <t>-63,09; -40,65</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,56</t>
+          <t>-4,05; 2,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,5; -0,93</t>
+          <t>-8,37; -0,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,34; -0,05</t>
+          <t>-5,11; -0,22</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 16,34</t>
+          <t>-21,05; 16,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,39; -3,8</t>
+          <t>-29,91; -3,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,58; -0,33</t>
+          <t>-22,14; -1,1</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -2,81</t>
+          <t>-6,83; -2,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -4,41</t>
+          <t>-8,7; -4,59</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -4,25</t>
+          <t>-6,94; -4,34</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-33,96; -16,5</t>
+          <t>-34,2; -16,8</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-35,44; -20,22</t>
+          <t>-35,9; -20,69</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-32,07; -20,99</t>
+          <t>-32,11; -21,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Habitat-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 6,32</t>
+          <t>-15,33; 7,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 2,94</t>
+          <t>-14,42; 2,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 2,25</t>
+          <t>-11,91; 2,34</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,03; 43,1</t>
+          <t>-58,04; 48,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,91; 19,52</t>
+          <t>-52,55; 20,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 14,53</t>
+          <t>-48,37; 15,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 3,57</t>
+          <t>-6,11; 3,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 0,49</t>
+          <t>-8,85; 0,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 0,54</t>
+          <t>-5,88; 0,25</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 23,38</t>
+          <t>-29,09; 19,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 2,07</t>
+          <t>-31,68; 1,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 2,8</t>
+          <t>-24,88; 1,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -4,76</t>
+          <t>-11,68; -4,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -2,79</t>
+          <t>-9,75; -2,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,78; -4,91</t>
+          <t>-9,82; -4,71</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,31; -25,99</t>
+          <t>-53,55; -26,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,19; -12,98</t>
+          <t>-37,94; -13,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,21; -23,87</t>
+          <t>-42,64; -23,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,94; -4,55</t>
+          <t>-12,17; -4,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,03; -6,98</t>
+          <t>-15,18; -7,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,27; -6,78</t>
+          <t>-12,32; -7,04</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,02; -29,04</t>
+          <t>-61,65; -28,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-71,26; -40,63</t>
+          <t>-69,73; -40,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,09; -40,65</t>
+          <t>-62,82; -40,94</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 2,73</t>
+          <t>-4,19; 2,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,37; -0,83</t>
+          <t>-8,55; -1,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,11; -0,22</t>
+          <t>-5,1; 0,05</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 16,63</t>
+          <t>-21,88; 16,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,91; -3,49</t>
+          <t>-30,72; -4,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,14; -1,1</t>
+          <t>-22,05; 0,19</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,83; -2,91</t>
+          <t>-6,71; -2,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,7; -4,59</t>
+          <t>-8,84; -4,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,94; -4,34</t>
+          <t>-6,82; -4,12</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-34,2; -16,8</t>
+          <t>-34,28; -16,46</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-35,9; -20,69</t>
+          <t>-36,27; -20,98</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-32,11; -21,33</t>
+          <t>-31,93; -20,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 7,41</t>
+          <t>-15,14; 5,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 2,59</t>
+          <t>-14,26; 2,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 2,34</t>
+          <t>-11,68; 2,56</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,04; 48,77</t>
+          <t>-57,55; 37,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,55; 20,35</t>
+          <t>-53,01; 19,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,37; 15,4</t>
+          <t>-47,43; 15,54</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 3,13</t>
+          <t>-6,16; 3,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 0,36</t>
+          <t>-8,91; 0,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 0,25</t>
+          <t>-5,87; 0,35</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,09; 19,67</t>
+          <t>-29,84; 20,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 1,54</t>
+          <t>-31,31; 1,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 1,4</t>
+          <t>-24,28; 1,98</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -4,88</t>
+          <t>-11,84; -4,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -2,77</t>
+          <t>-9,83; -2,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,82; -4,71</t>
+          <t>-9,61; -4,71</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,55; -26,11</t>
+          <t>-53,66; -26,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,94; -13,56</t>
+          <t>-37,66; -12,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,64; -23,11</t>
+          <t>-41,34; -23,2</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,17; -4,34</t>
+          <t>-11,59; -4,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,18; -7,08</t>
+          <t>-15,18; -6,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,32; -7,04</t>
+          <t>-12,21; -6,87</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,65; -28,22</t>
+          <t>-58,94; -29,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,73; -40,22</t>
+          <t>-70,26; -40,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,82; -40,94</t>
+          <t>-62,52; -40,42</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,73</t>
+          <t>-4,37; 2,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,55; -1,2</t>
+          <t>-8,5; -0,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 0,05</t>
+          <t>-5,34; -0,05</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 16,82</t>
+          <t>-22,0; 16,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,72; -4,89</t>
+          <t>-30,39; -3,8</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 0,19</t>
+          <t>-22,58; -0,33</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,71; -2,94</t>
+          <t>-6,62; -2,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -4,7</t>
+          <t>-8,84; -4,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -4,12</t>
+          <t>-6,97; -4,25</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-34,28; -16,46</t>
+          <t>-33,96; -16,5</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-36,27; -20,98</t>
+          <t>-35,44; -20,22</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-31,93; -20,61</t>
+          <t>-32,07; -20,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Habitat-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-3,65</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 5,65</t>
+          <t>-6,72; 1,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 2,86</t>
+          <t>-9,47; -0,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 2,56</t>
+          <t>-6,66; -0,71</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-13,77%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>-19,89%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-25,34%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,07%</t>
+          <t>-16,96%</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 37,39</t>
+          <t>-31,22; 9,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,01; 19,58</t>
+          <t>-34,51; -2,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 15,54</t>
+          <t>-28,07; -3,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-10,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-9,01</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 3,03</t>
+          <t>-15,79; -6,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 0,41</t>
+          <t>-10,02; -3,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 0,35</t>
+          <t>-13,67; -6,12</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,61%</t>
+          <t>-52,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-15,98%</t>
+          <t>-28,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,08%</t>
+          <t>-41,02%</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 20,61</t>
+          <t>-72,93; -34,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 1,82</t>
+          <t>-38,99; -14,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,28; 1,98</t>
+          <t>-59,77; -29,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,18</t>
+          <t>-8,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,28</t>
+          <t>-12,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,23</t>
+          <t>-10,37</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,84; -4,81</t>
+          <t>-11,83; -4,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,83; -2,68</t>
+          <t>-17,38; -8,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -4,71</t>
+          <t>-14,04; -7,75</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-40,69%</t>
+          <t>-48,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-26,4%</t>
+          <t>-61,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-32,93%</t>
+          <t>-56,24%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,66; -26,62</t>
+          <t>-60,25; -30,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,66; -12,28</t>
+          <t>-80,42; -47,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,34; -23,2</t>
+          <t>-72,01; -44,82</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,21</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,59</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,42</t>
+          <t>-3,82</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,59; -4,71</t>
+          <t>-5,0; 1,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,18; -6,88</t>
+          <t>-10,72; -2,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,21; -6,87</t>
+          <t>-6,78; -1,21</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-47,4%</t>
+          <t>-7,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-54,26%</t>
+          <t>-24,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-51,12%</t>
+          <t>-17,51%</t>
         </is>
       </c>
     </row>
@@ -913,24 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,94; -29,84</t>
+          <t>-25,4; 12,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,26; -40,3</t>
+          <t>-39,09; -9,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,52; -40,42</t>
+          <t>-29,46; -6,01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-6,89</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,56</t>
+          <t>-9,07; -3,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,5; -0,93</t>
+          <t>-10,91; -5,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,34; -0,05</t>
+          <t>-8,8; -5,35</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,96%</t>
+          <t>-32,71%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-18,45%</t>
+          <t>-32,82%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-12,28%</t>
+          <t>-32,73%</t>
         </is>
       </c>
     </row>
@@ -1009,131 +1009,34 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 16,34</t>
+          <t>-46,66; -22,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,39; -3,8</t>
+          <t>-45,74; -24,66</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,58; -0,33</t>
+          <t>-40,94; -26,06</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-4,79</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-6,44</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-5,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-6,62; -2,81</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-8,84; -4,41</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-6,97; -4,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-25,85%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-27,43%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-26,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-33,96; -16,5</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-35,44; -20,22</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-32,07; -20,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P57_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Habitat-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 1,49</t>
+          <t>-6,81; 1,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,47; -0,77</t>
+          <t>-8,82; -0,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,66; -0,71</t>
+          <t>-6,31; -0,85</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 9,97</t>
+          <t>-32,28; 7,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,51; -2,95</t>
+          <t>-32,91; -3,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,07; -3,42</t>
+          <t>-27,04; -4,45</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,79; -6,25</t>
+          <t>-16,17; -6,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,02; -3,07</t>
+          <t>-9,94; -3,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,67; -6,12</t>
+          <t>-13,2; -6,24</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,93; -34,36</t>
+          <t>-74,42; -35,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,99; -14,15</t>
+          <t>-38,49; -14,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,77; -29,45</t>
+          <t>-59,04; -30,18</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,83; -4,92</t>
+          <t>-12,24; -5,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,38; -8,28</t>
+          <t>-17,47; -8,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,04; -7,75</t>
+          <t>-14,13; -7,56</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,25; -30,45</t>
+          <t>-62,51; -31,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,42; -47,01</t>
+          <t>-81,91; -46,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-72,01; -44,82</t>
+          <t>-71,8; -43,17</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 1,88</t>
+          <t>-4,66; 2,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,72; -2,25</t>
+          <t>-11,38; -2,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,78; -1,21</t>
+          <t>-6,91; -1,27</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 12,51</t>
+          <t>-23,69; 13,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,09; -9,71</t>
+          <t>-41,74; -11,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,46; -6,01</t>
+          <t>-29,9; -6,09</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,07; -3,92</t>
+          <t>-8,62; -3,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,91; -5,5</t>
+          <t>-10,63; -5,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -5,35</t>
+          <t>-8,88; -5,31</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-46,66; -22,55</t>
+          <t>-45,62; -22,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,74; -24,66</t>
+          <t>-44,5; -25,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,94; -26,06</t>
+          <t>-41,48; -26,16</t>
         </is>
       </c>
     </row>
